--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1715245.244997651</v>
+        <v>1731890.364301339</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6720290.133338347</v>
+        <v>6720290.133338343</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
+        <v>40.47627913313511</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>93.83806691228064</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,22 +746,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>56.84884336785152</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>52.42556848774763</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.483491837457919</v>
       </c>
       <c r="H6" t="n">
-        <v>103.7130553628818</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="8">
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>222.3396163656984</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.1159031720507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>122.8210243981995</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>36.43923176655766</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,55 +1305,55 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>118.6954547790018</v>
+        <v>248.9420823760527</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1461,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -1503,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>48.98427584501924</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>196.0690080090289</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1531,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>30.44996741998441</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356411</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>129.0632770397859</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>225.2606733395414</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>7.42522453130207</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>196.2789878280829</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>21.38816470214937</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356411</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.9189633854832</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>265.7301653101237</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
@@ -1923,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>95.80287390989558</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>68.23063318388124</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1941,7 +1943,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>99.78974769572881</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
@@ -2126,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>134.9677048421138</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>96.30626612731572</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>28.03728256313287</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>191.96389311163</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>106.914749732671</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>55.15641005250326</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>265.7301653101237</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>7.42522453130207</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
@@ -2457,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>92.5870240423544</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>38.9764047481749</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>38.97640474817484</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26.50533691882911</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,13 +2569,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>66.97401714472376</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>132.5764359736007</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2640,7 +2642,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>107.9937925002407</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2719,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>12.35168551462424</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>8.574121421069094</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>8.346463858805084</v>
+        <v>211.2688123623135</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2992,25 +2994,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>261.4697023004216</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>83.75853414222466</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>85.67417889435359</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>30.9375087269038</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3123,7 +3125,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>78.54202280713804</v>
@@ -3165,16 +3167,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>137.9369532470382</v>
       </c>
     </row>
     <row r="34">
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>99.78974769572852</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>27.09054020802882</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>89.98174747814556</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>7.425224531301852</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>48.98427584501901</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>56.60619488393976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>168.0120963982006</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>7.42522453130207</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>48.98427584501924</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>158.252581986138</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>12.35168551462418</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>117.3450705775779</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>104.1189927826351</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3819,10 +3821,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>46.665026084912</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3864,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>180.4616923463815</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3898,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>39.19479062707025</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>48.60488812335323</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>91.11625179762358</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>70.62654456112831</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,10 +4121,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>54.02664015769851</v>
       </c>
     </row>
     <row r="46">
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>115.0357396538524</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C2" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>735.8335372470253</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="C3" t="n">
-        <v>735.8335372470253</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="D3" t="n">
-        <v>586.8991275857741</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E3" t="n">
-        <v>427.6616725803186</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F3" t="n">
-        <v>281.1271146072036</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4434,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W3" t="n">
-        <v>735.8335372470253</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X3" t="n">
-        <v>735.8335372470253</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y3" t="n">
-        <v>735.8335372470253</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F5" t="n">
-        <v>72.23626279480629</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>298.4948343740486</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="C6" t="n">
-        <v>124.0418050929216</v>
+        <v>170.0885123598083</v>
       </c>
       <c r="D6" t="n">
-        <v>124.0418050929216</v>
+        <v>170.0885123598083</v>
       </c>
       <c r="E6" t="n">
-        <v>124.0418050929216</v>
+        <v>170.0885123598083</v>
       </c>
       <c r="F6" t="n">
-        <v>124.0418050929216</v>
+        <v>23.55395438669331</v>
       </c>
       <c r="G6" t="n">
-        <v>124.0418050929216</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4674,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>298.4948343740486</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>298.4948343740486</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y6" t="n">
-        <v>298.4948343740486</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W8" t="n">
-        <v>467.067986854209</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X8" t="n">
-        <v>223.6192102101089</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.68395448076474</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343.4227147053767</v>
+        <v>293.0313262305118</v>
       </c>
       <c r="C9" t="n">
         <v>168.9696854242497</v>
@@ -4887,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>927.2498506959315</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>927.2498506959315</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W9" t="n">
-        <v>927.2498506959315</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X9" t="n">
-        <v>719.3983504903987</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y9" t="n">
-        <v>511.6380517254448</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -4999,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1088.658125761969</v>
+        <v>978.9900729440515</v>
       </c>
       <c r="C11" t="n">
-        <v>1088.658125761969</v>
+        <v>978.9900729440515</v>
       </c>
       <c r="D11" t="n">
-        <v>1088.658125761969</v>
+        <v>620.724374337301</v>
       </c>
       <c r="E11" t="n">
-        <v>1088.658125761969</v>
+        <v>620.724374337301</v>
       </c>
       <c r="F11" t="n">
-        <v>968.7637269953007</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G11" t="n">
-        <v>558.9237552812579</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
         <v>70.13987180521508</v>
@@ -5063,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>1088.658125761969</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V11" t="n">
-        <v>1088.658125761969</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W11" t="n">
-        <v>1088.658125761969</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="X11" t="n">
-        <v>1088.658125761969</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="Y11" t="n">
-        <v>1088.658125761969</v>
+        <v>978.9900729440515</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.6600854869342</v>
+        <v>566.5011249724407</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>566.5011249724407</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>417.5667153111894</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H12" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L12" t="n">
-        <v>534.697260562599</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313475</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082808</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O12" t="n">
         <v>1271.486777082839</v>
@@ -5151,19 +5153,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U12" t="n">
-        <v>1622.966287987609</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V12" t="n">
-        <v>1622.966287987609</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="W12" t="n">
-        <v>1573.487221477489</v>
+        <v>1140.526263796886</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.635721271956</v>
+        <v>942.4767607574627</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.875422507002</v>
+        <v>734.7164619925088</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>63.21686860822129</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5218,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1508.970645214178</v>
+        <v>811.2618144142066</v>
       </c>
       <c r="C14" t="n">
-        <v>1508.970645214178</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D14" t="n">
-        <v>1508.970645214178</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E14" t="n">
-        <v>1378.603698709343</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F14" t="n">
-        <v>968.7637269953007</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G14" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
@@ -5300,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T14" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U14" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V14" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W14" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X14" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="Y14" t="n">
-        <v>1508.970645214178</v>
+        <v>1197.861654478328</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>39.95955255904721</v>
+        <v>612.6748806677822</v>
       </c>
       <c r="C15" t="n">
-        <v>32.45932575975219</v>
+        <v>438.2218513866552</v>
       </c>
       <c r="D15" t="n">
-        <v>32.45932575975219</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="E15" t="n">
-        <v>32.45932575975219</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F15" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M15" t="n">
-        <v>656.0248753321104</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U15" t="n">
-        <v>944.9608164894784</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V15" t="n">
-        <v>709.8087082577356</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="W15" t="n">
-        <v>455.571351529534</v>
+        <v>1196.502016658337</v>
       </c>
       <c r="X15" t="n">
-        <v>247.7198513240011</v>
+        <v>988.6505164528041</v>
       </c>
       <c r="Y15" t="n">
-        <v>39.95955255904721</v>
+        <v>780.8902176878503</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5461,25 +5463,25 @@
         <v>129.490276430019</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
     </row>
     <row r="17">
@@ -5498,31 +5500,31 @@
         <v>1622.966287987609</v>
       </c>
       <c r="E17" t="n">
-        <v>1378.603698709343</v>
+        <v>1237.178035389365</v>
       </c>
       <c r="F17" t="n">
-        <v>968.7637269953004</v>
+        <v>827.3380636753222</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812577</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H17" t="n">
         <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>496.6196464651036</v>
+        <v>911.9776359127725</v>
       </c>
       <c r="C18" t="n">
-        <v>496.6196464651036</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D18" t="n">
-        <v>496.6196464651036</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E18" t="n">
-        <v>427.6998149662337</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F18" t="n">
-        <v>281.1652569931186</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L18" t="n">
-        <v>147.3709770270845</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O18" t="n">
         <v>1271.486777082839</v>
@@ -5616,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1422.063279093102</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U18" t="n">
-        <v>1193.860611630581</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V18" t="n">
-        <v>958.708503398838</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W18" t="n">
-        <v>704.4711466706365</v>
+        <v>1119.829136118305</v>
       </c>
       <c r="X18" t="n">
-        <v>496.6196464651036</v>
+        <v>911.9776359127725</v>
       </c>
       <c r="Y18" t="n">
-        <v>496.6196464651036</v>
+        <v>911.9776359127725</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5695,28 +5697,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1096.495941019763</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="C20" t="n">
-        <v>727.5334240793518</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="D20" t="n">
-        <v>369.2677254726013</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="E20" t="n">
-        <v>369.2677254726013</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F20" t="n">
-        <v>369.2677254726013</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G20" t="n">
         <v>369.2677254726013</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011319</v>
@@ -5774,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T20" t="n">
-        <v>1486.635272995575</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U20" t="n">
-        <v>1486.635272995575</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.635272995575</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="W20" t="n">
-        <v>1486.635272995575</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="X20" t="n">
-        <v>1486.635272995575</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="Y20" t="n">
-        <v>1096.495941019763</v>
+        <v>1188.947668900687</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>355.8467647021305</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="C21" t="n">
-        <v>181.3937354210034</v>
+        <v>535.3556789766084</v>
       </c>
       <c r="D21" t="n">
-        <v>32.45932575975219</v>
+        <v>535.3556789766084</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M21" t="n">
-        <v>729.6092173456784</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O21" t="n">
         <v>1380.722538783602</v>
@@ -5853,28 +5855,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1429.063365652629</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V21" t="n">
-        <v>1193.911257420887</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W21" t="n">
-        <v>939.6739006926853</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="X21" t="n">
-        <v>731.8224004871524</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="Y21" t="n">
-        <v>524.0621017221986</v>
+        <v>709.8087082577354</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144412</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>1514.971591287942</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X22" t="n">
-        <v>1514.971591287942</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144412</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1354.551979593545</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="C23" t="n">
-        <v>1354.551979593545</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="D23" t="n">
-        <v>1354.551979593545</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E23" t="n">
-        <v>968.7637269953007</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F23" t="n">
-        <v>968.7637269953007</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G23" t="n">
-        <v>558.9237552812579</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H23" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6011,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.966287987609</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="W23" t="n">
-        <v>1622.966287987609</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="X23" t="n">
-        <v>1354.551979593545</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="Y23" t="n">
-        <v>1354.551979593545</v>
+        <v>779.1076971866441</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C24" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D24" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E24" t="n">
         <v>32.45932575975219</v>
@@ -6069,19 +6071,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497702</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.042269026703</v>
+        <v>1190.717019112289</v>
       </c>
       <c r="O24" t="n">
-        <v>1483.055776201262</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="P24" t="n">
         <v>1513.730526286847</v>
@@ -6105,13 +6107,13 @@
         <v>709.8087082577356</v>
       </c>
       <c r="W24" t="n">
-        <v>455.571351529534</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X24" t="n">
-        <v>247.7198513240011</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y24" t="n">
-        <v>39.95955255904721</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
         <v>32.45932575975219</v>
@@ -6148,49 +6150,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N25" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="W25" t="n">
-        <v>71.82943156598947</v>
+        <v>71.82943156598941</v>
       </c>
       <c r="X25" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1596.193220392832</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C26" t="n">
-        <v>1596.193220392832</v>
+        <v>1254.003771047197</v>
       </c>
       <c r="D26" t="n">
-        <v>1237.927521786082</v>
+        <v>895.738072440447</v>
       </c>
       <c r="E26" t="n">
-        <v>852.1392691878377</v>
+        <v>509.9498198422028</v>
       </c>
       <c r="F26" t="n">
-        <v>442.299297473795</v>
+        <v>100.10984812816</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>100.10984812816</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>100.10984812816</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>594.4195962804527</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C27" t="n">
-        <v>419.9665669993257</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D27" t="n">
-        <v>271.0321573380744</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M27" t="n">
-        <v>758.3581127497702</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N27" t="n">
-        <v>1160.042269026703</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.568727888341</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V27" t="n">
-        <v>1432.484088999209</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W27" t="n">
-        <v>1178.246732271007</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X27" t="n">
-        <v>970.3952320654746</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="Y27" t="n">
-        <v>762.6349333005207</v>
+        <v>489.7623565946564</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6406,28 +6408,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C29" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D29" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E29" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F29" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
         <v>32.45932575975218</v>
@@ -6461,16 +6463,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6488,25 +6490,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S29" t="n">
-        <v>1500.309916506027</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T29" t="n">
-        <v>1500.309916506027</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U29" t="n">
-        <v>1500.309916506027</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V29" t="n">
-        <v>1169.247029162456</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W29" t="n">
-        <v>1169.247029162456</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X29" t="n">
-        <v>1169.247029162456</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y29" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>989.6600854869342</v>
+        <v>504.5621832871644</v>
       </c>
       <c r="C30" t="n">
-        <v>815.2070562058072</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="D30" t="n">
-        <v>666.272646544556</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="E30" t="n">
-        <v>507.0351915391004</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F30" t="n">
-        <v>360.5006335659854</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G30" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L30" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M30" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U30" t="n">
-        <v>1365.635721271956</v>
+        <v>1409.563447217595</v>
       </c>
       <c r="V30" t="n">
-        <v>1365.635721271956</v>
+        <v>1174.411338985853</v>
       </c>
       <c r="W30" t="n">
-        <v>1365.635721271956</v>
+        <v>920.1739822576512</v>
       </c>
       <c r="X30" t="n">
-        <v>1365.635721271956</v>
+        <v>712.3224820521184</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.875422507002</v>
+        <v>504.5621832871644</v>
       </c>
     </row>
     <row r="31">
@@ -6640,22 +6642,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S31" t="n">
-        <v>139.6199360758254</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T31" t="n">
-        <v>139.6199360758254</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W31" t="n">
         <v>32.45932575975218</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1164.895949784888</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C32" t="n">
-        <v>1164.895949784888</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D32" t="n">
-        <v>1164.895949784888</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E32" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F32" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G32" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975218</v>
@@ -6698,16 +6700,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6737,13 +6739,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>1538.361708045968</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X32" t="n">
-        <v>1164.895949784888</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="Y32" t="n">
-        <v>1164.895949784888</v>
+        <v>1146.287381371036</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>697.5226553596103</v>
+        <v>879.3665274943975</v>
       </c>
       <c r="C33" t="n">
-        <v>697.5226553596103</v>
+        <v>704.9134982132705</v>
       </c>
       <c r="D33" t="n">
-        <v>666.272646544556</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="E33" t="n">
-        <v>507.0351915391004</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F33" t="n">
-        <v>360.5006335659854</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G33" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H33" t="n">
         <v>111.7947023326189</v>
@@ -6780,19 +6782,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>905.36650176277</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N33" t="n">
-        <v>1299.952780813051</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O33" t="n">
-        <v>1622.966287987609</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6813,16 +6815,16 @@
         <v>1394.763620525087</v>
       </c>
       <c r="V33" t="n">
-        <v>1159.611512293345</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="W33" t="n">
-        <v>905.3741555651432</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="X33" t="n">
-        <v>697.5226553596103</v>
+        <v>1186.912120319555</v>
       </c>
       <c r="Y33" t="n">
-        <v>697.5226553596103</v>
+        <v>1047.581864514465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L34" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M34" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N34" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S34" t="n">
-        <v>261.5666648398646</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T34" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U34" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W34" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X34" t="n">
-        <v>32.45932575975218</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1069.159481024806</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C35" t="n">
-        <v>1069.159481024806</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D35" t="n">
-        <v>1069.159481024806</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E35" t="n">
-        <v>1069.159481024806</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F35" t="n">
-        <v>659.3195093107634</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
-        <v>249.4795375967206</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
@@ -6965,22 +6967,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1069.159481024806</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W35" t="n">
-        <v>1069.159481024806</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X35" t="n">
-        <v>1069.159481024806</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y35" t="n">
-        <v>1069.159481024806</v>
+        <v>1532.07563396928</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>39.95955255904698</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C36" t="n">
-        <v>39.95955255904698</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D36" t="n">
-        <v>39.95955255904698</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E36" t="n">
-        <v>39.95955255904698</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F36" t="n">
-        <v>39.95955255904698</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>39.95955255904698</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
-        <v>39.95955255904698</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L36" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577354</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="W36" t="n">
-        <v>455.5713515295337</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240009</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904698</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
         <v>32.45932575975218</v>
@@ -7126,19 +7128,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>72.05002336285361</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1202.653768535401</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="C38" t="n">
-        <v>833.6912515949891</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="D38" t="n">
-        <v>475.4255529882386</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E38" t="n">
-        <v>89.63730038999438</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975219</v>
@@ -7205,19 +7207,19 @@
         <v>1202.653768535401</v>
       </c>
       <c r="U38" t="n">
-        <v>1202.653768535401</v>
+        <v>948.8168854676549</v>
       </c>
       <c r="V38" t="n">
-        <v>1202.653768535401</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="W38" t="n">
-        <v>1202.653768535401</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="X38" t="n">
-        <v>1202.653768535401</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="Y38" t="n">
-        <v>1202.653768535401</v>
+        <v>779.1076971866441</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>39.95955255904721</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C39" t="n">
-        <v>39.95955255904721</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D39" t="n">
-        <v>39.95955255904721</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E39" t="n">
-        <v>39.95955255904721</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975219</v>
@@ -7254,13 +7256,13 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L39" t="n">
-        <v>534.6972605625989</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M39" t="n">
-        <v>546.7891136313477</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N39" t="n">
         <v>948.4732699082811</v>
@@ -7275,28 +7277,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894784</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="V39" t="n">
-        <v>709.8087082577356</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="W39" t="n">
-        <v>455.571351529534</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X39" t="n">
-        <v>247.7198513240011</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y39" t="n">
-        <v>39.95955255904721</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>201.3955086876591</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975219</v>
+        <v>1476.076340489699</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975219</v>
+        <v>1306.655462159184</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.45932575975218</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C41" t="n">
         <v>32.45932575975218</v>
@@ -7433,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>834.8212426942227</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="V41" t="n">
-        <v>503.7583553506521</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="W41" t="n">
-        <v>150.9897000805379</v>
+        <v>1165.026932937056</v>
       </c>
       <c r="X41" t="n">
-        <v>150.9897000805379</v>
+        <v>791.5611746759756</v>
       </c>
       <c r="Y41" t="n">
-        <v>150.9897000805379</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>206.9123550408792</v>
+        <v>79.59571574451178</v>
       </c>
       <c r="C42" t="n">
-        <v>32.45932575975218</v>
+        <v>79.59571574451178</v>
       </c>
       <c r="D42" t="n">
         <v>32.45932575975218</v>
@@ -7491,49 +7493,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L42" t="n">
-        <v>208.2166101768439</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1273.179515222157</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1044.976847759636</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V42" t="n">
-        <v>1044.976847759636</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W42" t="n">
-        <v>790.739491031434</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X42" t="n">
-        <v>582.8879908259012</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="Y42" t="n">
-        <v>375.1276920609472</v>
+        <v>247.8110527645798</v>
       </c>
     </row>
     <row r="43">
@@ -7546,16 +7548,16 @@
         <v>1333.769709747513</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144411</v>
+        <v>1333.769709747513</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144411</v>
+        <v>1333.769709747513</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144411</v>
+        <v>1333.769709747513</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144411</v>
+        <v>1333.769709747513</v>
       </c>
       <c r="G43" t="n">
         <v>1294.179012144411</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>401.4218427001639</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="C44" t="n">
-        <v>32.45932575975218</v>
+        <v>901.2351157770834</v>
       </c>
       <c r="D44" t="n">
-        <v>32.45932575975218</v>
+        <v>901.2351157770834</v>
       </c>
       <c r="E44" t="n">
-        <v>32.45932575975218</v>
+        <v>901.2351157770834</v>
       </c>
       <c r="F44" t="n">
-        <v>32.45932575975218</v>
+        <v>491.3951440630406</v>
       </c>
       <c r="G44" t="n">
-        <v>32.45932575975218</v>
+        <v>81.55517234899787</v>
       </c>
       <c r="H44" t="n">
         <v>32.45932575975218</v>
@@ -7676,22 +7678,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1530.929670010212</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1530.929670010212</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1530.929670010212</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>1178.161014740097</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X44" t="n">
-        <v>1178.161014740097</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y44" t="n">
-        <v>788.0216827642857</v>
+        <v>1270.197632717495</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>321.5470195745884</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C45" t="n">
-        <v>250.2070755734487</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D45" t="n">
-        <v>250.2070755734487</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E45" t="n">
-        <v>250.2070755734487</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F45" t="n">
-        <v>250.2070755734487</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>236.9655055809357</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M45" t="n">
-        <v>636.3836421851986</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N45" t="n">
         <v>948.4732699082806</v>
@@ -7752,25 +7754,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U45" t="n">
-        <v>1394.763620525087</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="V45" t="n">
-        <v>1159.611512293345</v>
+        <v>992.1092772515105</v>
       </c>
       <c r="W45" t="n">
-        <v>905.3741555651432</v>
+        <v>737.871920523309</v>
       </c>
       <c r="X45" t="n">
-        <v>697.5226553596103</v>
+        <v>737.871920523309</v>
       </c>
       <c r="Y45" t="n">
-        <v>489.7623565946564</v>
+        <v>683.2995567276539</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>148.6570425818254</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975218</v>
+        <v>148.6570425818254</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975218</v>
@@ -7825,31 +7827,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q46" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R46" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S46" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T46" t="n">
-        <v>132.1392625228377</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U46" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8301,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>186.173573874842</v>
       </c>
       <c r="M12" t="n">
-        <v>74.46639351210649</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>186.173573874842</v>
       </c>
       <c r="M15" t="n">
-        <v>362.3381572675153</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9245,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>270.4206501018626</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>380.7598033349565</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>308.5394070542105</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>104.7567089243589</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>308.5394070542101</v>
       </c>
       <c r="O27" t="n">
-        <v>290.4954127942449</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>74.46639351210651</v>
+        <v>391.3774455544766</v>
       </c>
       <c r="N30" t="n">
         <v>455.0874215304797</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>447.9178485742653</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>73.77211287831324</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275543</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>174.18790452568</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.7959972113199</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>74.46639351210686</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304798</v>
+        <v>241.3813618149015</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11139,13 +11141,13 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L42" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>404.2448282451924</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
-        <v>70.10119885733474</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>364.5878977387108</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23261,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>288.1805909627096</v>
+        <v>157.9339633656587</v>
       </c>
       <c r="G11" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23349,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23391,16 +23393,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>202.7107073159004</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>9.703977194448584</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>114.9710806029468</v>
       </c>
       <c r="G13" t="n">
         <v>167.7266695472104</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>252.8670930324759</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>160.9772653165122</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>165.2832744570137</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>78.54202280713804</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>55.4159953328367</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23671,10 +23673,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>126.1137933559314</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23738,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.0114066867786</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>148.9833388204102</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23811,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>76.90562507842016</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>89.41444727151971</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23829,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>66.72592374140291</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
         <v>286.3046124576955</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24014,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>85.54877558092599</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>231.4459923428192</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>129.6077978922681</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>33.95674767626656</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>128.2704163504529</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>179.60824860392</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24212,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>272.5958484176317</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>104.0009353683453</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>150.2198559240989</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24345,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>159.1079591185652</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>128.2704163504529</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408623</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>356.2285047446514</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.1344737448091</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>120.7854523658462</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>33.95674767626667</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24528,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,7 +24542,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
@@ -24576,10 +24578,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>124.8067946491845</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>134.0822771319449</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>159.8772180037952</v>
@@ -24646,7 +24648,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
         <v>219.4103988718534</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.49431140418642</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>187.0187924135774</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008911</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>217.5741769290915</v>
+        <v>14.65182842558309</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24880,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>180.215608244783</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>25.0532960361694</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>265.4824345751883</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>284.0569217841154</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>116.507556837735</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25011,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25053,16 +25055,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>67.74574253026614</v>
       </c>
     </row>
     <row r="34">
@@ -25123,10 +25125,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>120.7272614763987</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>118.7949056563663</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>306.3497755076918</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,13 +25207,13 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>296.256191177908</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>71.11679827583619</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>183.8163113044063</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>128.0520304715574</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25366,7 +25368,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>118.794905656366</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>350.2698508577716</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25445,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>159.7401620719343</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>137.6439878620818</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>116.8429368463965</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.57939819579926</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>159.8772180037952</v>
+        <v>147.525532489171</v>
       </c>
       <c r="I40" t="n">
         <v>147.5019580580808</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>265.3887710859027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>147.1795214544333</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25707,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>100.7800394797268</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25752,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>18.4322864591802</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>128.0520304715576</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>128.5318789201402</v>
       </c>
       <c r="H43" t="n">
         <v>159.8772180037952</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>284.8354275923674</v>
       </c>
       <c r="I44" t="n">
         <v>187.7594695105699</v>
@@ -25916,7 +25918,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>129.4002286254162</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>102.0819544271874</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
@@ -26007,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>151.6560556196059</v>
       </c>
     </row>
     <row r="46">
@@ -26029,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>52.69092989335797</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>165.4090611368575</v>
@@ -26074,10 +26076,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>187.6214750622408</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480659.6803033039</v>
+        <v>480659.6803033038</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>480659.6803033037</v>
+        <v>480659.6803033035</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>480659.6803033036</v>
+        <v>480659.6803033034</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>480659.6803033036</v>
+        <v>480659.6803033035</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>480659.6803033036</v>
+        <v>480659.6803033035</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>480659.6803033036</v>
+        <v>480659.6803033035</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480659.6803033036</v>
+        <v>480659.6803033038</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
+        <v>309761.9007436794</v>
+      </c>
+      <c r="F2" t="n">
         <v>309761.9007436793</v>
-      </c>
-      <c r="F2" t="n">
-        <v>309761.9007436794</v>
       </c>
       <c r="G2" t="n">
         <v>309761.9007436794</v>
       </c>
       <c r="H2" t="n">
-        <v>309761.9007436797</v>
+        <v>309761.9007436794</v>
       </c>
       <c r="I2" t="n">
+        <v>309761.9007436796</v>
+      </c>
+      <c r="J2" t="n">
         <v>309761.9007436794</v>
-      </c>
-      <c r="J2" t="n">
-        <v>309761.9007436795</v>
       </c>
       <c r="K2" t="n">
         <v>309761.9007436794</v>
       </c>
       <c r="L2" t="n">
-        <v>309761.9007436794</v>
+        <v>309761.9007436795</v>
       </c>
       <c r="M2" t="n">
+        <v>309761.9007436795</v>
+      </c>
+      <c r="N2" t="n">
+        <v>309761.9007436793</v>
+      </c>
+      <c r="O2" t="n">
         <v>309761.9007436796</v>
-      </c>
-      <c r="N2" t="n">
-        <v>309761.9007436795</v>
-      </c>
-      <c r="O2" t="n">
-        <v>309761.9007436795</v>
       </c>
       <c r="P2" t="n">
         <v>309761.9007436794</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26430,7 +26432,7 @@
         <v>43026.40002390872</v>
       </c>
       <c r="G4" t="n">
-        <v>43026.40002390871</v>
+        <v>43026.40002390872</v>
       </c>
       <c r="H4" t="n">
         <v>43026.40002390872</v>
@@ -26476,22 +26478,22 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="G5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="F5" t="n">
-        <v>27864.35291375757</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>27864.35291375756</v>
-      </c>
-      <c r="H5" t="n">
-        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
         <v>27864.35291375756</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145241.6298659402</v>
+        <v>145241.6298659401</v>
       </c>
       <c r="C6" t="n">
         <v>226011.0613974881</v>
       </c>
       <c r="D6" t="n">
-        <v>226011.0613974882</v>
+        <v>226011.0613974878</v>
       </c>
       <c r="E6" t="n">
-        <v>71930.97768076623</v>
+        <v>71930.97768076634</v>
       </c>
       <c r="F6" t="n">
+        <v>238871.1478060131</v>
+      </c>
+      <c r="G6" t="n">
         <v>238871.1478060132</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>238871.1478060131</v>
       </c>
-      <c r="H6" t="n">
-        <v>238871.1478060134</v>
-      </c>
       <c r="I6" t="n">
-        <v>238871.1478060132</v>
+        <v>238871.1478060133</v>
       </c>
       <c r="J6" t="n">
-        <v>175811.205206907</v>
+        <v>175811.2052069069</v>
       </c>
       <c r="K6" t="n">
         <v>238871.1478060132</v>
@@ -26552,13 +26554,13 @@
         <v>238871.1478060132</v>
       </c>
       <c r="M6" t="n">
-        <v>197820.4499435654</v>
+        <v>197820.4499435653</v>
       </c>
       <c r="N6" t="n">
-        <v>238871.1478060132</v>
+        <v>238871.1478060131</v>
       </c>
       <c r="O6" t="n">
-        <v>238871.1478060132</v>
+        <v>238871.1478060134</v>
       </c>
       <c r="P6" t="n">
         <v>238871.1478060131</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>72.6951167375867</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,22 +27466,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>80.49467379535912</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,16 +27508,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>178.3269633122123</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27630,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>362.8771690273874</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27658,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27704,19 +27706,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>133.8600253257527</v>
       </c>
       <c r="H6" t="n">
-        <v>8.522388873614702</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,19 +27748,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>130.5841931152253</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27795,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27862,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>192.9631211494366</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>206.1220354840029</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>49.88747459011626</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>189.5021503144172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L17" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
         <v>39.29566048323129</v>
@@ -32406,7 +32408,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225442</v>
@@ -32415,16 +32417,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I23" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L23" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438473</v>
@@ -32722,25 +32724,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R23" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S23" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T23" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,7 +32782,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427703</v>
@@ -32789,22 +32791,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q24" t="n">
         <v>40.24363958326609</v>
@@ -32813,7 +32815,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32856,34 +32858,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O25" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q25" t="n">
         <v>22.13234246735009</v>
@@ -32892,7 +32894,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35021,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175073</v>
       </c>
       <c r="M12" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175073</v>
       </c>
       <c r="M15" t="n">
-        <v>300.0857567541446</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
@@ -35744,7 +35746,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35902,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>221.0748005682853</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -36042,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
@@ -36209,7 +36211,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>331.4139538013791</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726432</v>
@@ -36367,7 +36369,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N23" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O23" t="n">
         <v>249.9811662707763</v>
@@ -36376,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
@@ -36446,13 +36448,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>259.1935575206331</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>30.98459604604563</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>110.3391532330937</v>
@@ -36516,16 +36518,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M25" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O25" t="n">
         <v>61.94411832576036</v>
@@ -36674,7 +36676,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36683,16 +36685,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>259.1935575206327</v>
       </c>
       <c r="O27" t="n">
-        <v>222.9093633908063</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>12.21399299873585</v>
+        <v>329.1250450411059</v>
       </c>
       <c r="N30" t="n">
         <v>405.7415719969023</v>
@@ -36929,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37157,13 +37159,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>398.571999040688</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37394,16 +37396,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>124.8420549921026</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>60.02388433300664</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>12.2139929987362</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>192.0355122813241</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>341.9924277318217</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
         <v>405.7415719969023</v>
@@ -37874,10 +37876,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>315.2420482051334</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
